--- a/JavaScript/Команды-методы.xlsx
+++ b/JavaScript/Команды-методы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ParseInt</t>
   </si>
@@ -82,19 +82,271 @@
   </si>
   <si>
     <t>вывод в консоль</t>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF97A7C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF71B1FE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF97A7C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFA9E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF97A7C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF71B1FE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>isNaN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF97A7C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(age) );</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF97A7C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF71B1FE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF97A7C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FF2F8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>typeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF97A7C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> age </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FF2F8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>===</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF97A7C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD8D8D8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70F49C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD8D8D8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF97A7C8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>isNaN</t>
+  </si>
+  <si>
+    <t>провряет-это не число?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF97A7C8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE76572"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF71B1FE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFA9E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FF2F8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD8D8D8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF70F49C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF506686"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,9 +369,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -421,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H14"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,8 +784,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
